--- a/output/fit_clients/fit_round_328.xlsx
+++ b/output/fit_clients/fit_round_328.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2486509016.665236</v>
+        <v>1789771675.139756</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1074938742462279</v>
+        <v>0.07030480685302821</v>
       </c>
       <c r="G2" t="n">
-        <v>0.040150966128849</v>
+        <v>0.02884188339058632</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1243254569.367478</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2090308207.667741</v>
+        <v>2241655653.73921</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1356445941791457</v>
+        <v>0.1563334246204954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04553882770665914</v>
+        <v>0.04298054532895901</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1045154157.882528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4305637410.900818</v>
+        <v>4396416339.184923</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1101804759407728</v>
+        <v>0.1651402919791412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03121036763142686</v>
+        <v>0.03054660112567399</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>118</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2152818741.296997</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2946302773.055434</v>
+        <v>3631036596.149946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1107223421916506</v>
+        <v>0.07766501390068459</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04388773481156082</v>
+        <v>0.04341540552977629</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1473151459.958783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1803343618.667819</v>
+        <v>2547252728.385801</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1466712048931107</v>
+        <v>0.145977720863049</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04267281158898559</v>
+        <v>0.04313133985208494</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>901671860.2178284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2264808205.370121</v>
+        <v>2735351455.153411</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09140761644284294</v>
+        <v>0.07557527289958417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03725435079157118</v>
+        <v>0.03020885490996867</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>102</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1132404138.34017</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3027380861.658045</v>
+        <v>3915377820.353189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2134121628202491</v>
+        <v>0.1748298140767694</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02751189789904565</v>
+        <v>0.02620755777155553</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1513690491.149094</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1953205518.12979</v>
+        <v>1789769532.483873</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1962864683435229</v>
+        <v>0.1483263256083077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03108722858349126</v>
+        <v>0.02803916127630087</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>976602792.1802248</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3989335841.671581</v>
+        <v>3627036221.153488</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1506120132616335</v>
+        <v>0.1713387015324078</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05146463241742977</v>
+        <v>0.04469571172048041</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>137</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1994667941.935905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3317487864.365577</v>
+        <v>2862820651.067297</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295104706833895</v>
+        <v>0.1774285969585324</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03988791525314076</v>
+        <v>0.03721081565512225</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>135</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1658743897.243564</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3221943923.749636</v>
+        <v>2063230459.029938</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1480519458346324</v>
+        <v>0.1207884333574934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03529325353980201</v>
+        <v>0.03414391958169332</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>112</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1610972000.228923</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4194440544.331545</v>
+        <v>5017897213.99096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09929099912726162</v>
+        <v>0.08709551059634212</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02617324961417348</v>
+        <v>0.01919865411953162</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>110</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2097220317.22693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2629074657.810109</v>
+        <v>2514201652.576973</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1654851900002471</v>
+        <v>0.1163054664053912</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04078950830016487</v>
+        <v>0.03928781898927207</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1314537390.212032</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1128268471.243981</v>
+        <v>1225884046.990214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1051266286649738</v>
+        <v>0.07573660903237771</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04324067219112296</v>
+        <v>0.04422437306945659</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>564134236.8548506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2156309225.896482</v>
+        <v>2606455486.139446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09008502959325947</v>
+        <v>0.09234811638947786</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04023533437373511</v>
+        <v>0.04800864349816841</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1078154674.476979</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4767749472.200296</v>
+        <v>4301659626.587595</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1604030379700411</v>
+        <v>0.1549215226875721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03668544655194093</v>
+        <v>0.04412316770920582</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2383874732.77673</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2415331784.388088</v>
+        <v>3479270868.651433</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1314934780795567</v>
+        <v>0.1717730124197064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02915352997423226</v>
+        <v>0.02768996938909212</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>107</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1207665964.844707</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>904186222.1218848</v>
+        <v>1211704210.405478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.165391629096151</v>
+        <v>0.1591965469813115</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02495994519100797</v>
+        <v>0.02718589165522733</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>452093116.9894798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2773399331.829984</v>
+        <v>2381138072.35015</v>
       </c>
       <c r="F20" t="n">
-        <v>0.15103572538056</v>
+        <v>0.1252161807157798</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03032834969700078</v>
+        <v>0.02545744059567718</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1386699609.889755</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1655678370.369329</v>
+        <v>2659912076.298418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08406343439842552</v>
+        <v>0.08839343537510176</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02973577358579254</v>
+        <v>0.03880760809349926</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>827839254.0508494</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3695525379.454231</v>
+        <v>3133297985.750097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09336470163445384</v>
+        <v>0.09554957260594968</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0502218631601916</v>
+        <v>0.03741726625740122</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1847762709.61511</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1548673064.1721</v>
+        <v>1359835099.855327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1741650493562457</v>
+        <v>0.1555548545921422</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05074436966823116</v>
+        <v>0.04312121007097596</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>774336509.8492912</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2799752009.387731</v>
+        <v>2561454606.706809</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1085197657092486</v>
+        <v>0.1032954401933583</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03171165492239612</v>
+        <v>0.03745173872189938</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1399876053.40852</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916362142.745165</v>
+        <v>1390783210.354865</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1130715473795295</v>
+        <v>0.09929769919802015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02887848691641964</v>
+        <v>0.0211982141294944</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458181154.6100655</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>948187717.0435958</v>
+        <v>1005938568.638169</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07691331476820848</v>
+        <v>0.1066961133119063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03343655049247083</v>
+        <v>0.03167973840040511</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>474093817.9361753</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4162042816.890118</v>
+        <v>3178350238.174059</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1505741147063357</v>
+        <v>0.1469943026828036</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01931913346704034</v>
+        <v>0.01964217125074424</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2081021410.540519</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2602329618.631605</v>
+        <v>2417168030.33236</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1135043207538102</v>
+        <v>0.110162170901122</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03355185597200211</v>
+        <v>0.03753250620520555</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1301164786.026743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4657146478.132019</v>
+        <v>4237212031.204653</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1317060729428892</v>
+        <v>0.1253228431323827</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04134219663668399</v>
+        <v>0.03430431621740887</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>144</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2328573210.355829</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1814415933.925355</v>
+        <v>1769845166.352596</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09940306268582143</v>
+        <v>0.09593078055997324</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02554885483306318</v>
+        <v>0.03501999855658865</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>907207983.2660763</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1496907353.431489</v>
+        <v>1180706115.584291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1052150994377483</v>
+        <v>0.07006274783315646</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04103513210107698</v>
+        <v>0.03340638474773132</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>748453558.2986224</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1497228502.167046</v>
+        <v>1619112724.977982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1186354033561133</v>
+        <v>0.1053556346660093</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02590177936929787</v>
+        <v>0.0281414491544894</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>748614318.8443068</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2913703119.945024</v>
+        <v>3037010677.075233</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1872567577947223</v>
+        <v>0.1849351954015092</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03739041461593601</v>
+        <v>0.04500395279805454</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>98</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1456851562.957446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1038660912.149541</v>
+        <v>1182494671.694367</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08469296470126331</v>
+        <v>0.1194328603430772</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02436562100245931</v>
+        <v>0.02106832923412483</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>519330487.5606022</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1218947665.50221</v>
+        <v>1343917433.174824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08247533676529052</v>
+        <v>0.0989461735312807</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03825675277554374</v>
+        <v>0.04351029037696128</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>609473803.3288777</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3096999824.561437</v>
+        <v>2189627586.693468</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1251842595839965</v>
+        <v>0.1119154384222683</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02139092613284605</v>
+        <v>0.0234677079224497</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>82</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1548499886.446792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1980296344.045156</v>
+        <v>1848348996.619391</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1085796935205693</v>
+        <v>0.1111236714630946</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03889126078823678</v>
+        <v>0.03672212130322412</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>990148196.592889</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1791950034.421934</v>
+        <v>1351799986.548197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07541887465328267</v>
+        <v>0.1026952037357278</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03989417171589866</v>
+        <v>0.03764761350028778</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>895975025.2293401</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1423456082.158033</v>
+        <v>1374361182.945553</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1271883672832996</v>
+        <v>0.1231605437882535</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02066605720466402</v>
+        <v>0.02094019270785721</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>711728123.1691421</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581191243.648975</v>
+        <v>1353826078.914894</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1294071284813644</v>
+        <v>0.1027480658720507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05929320873744789</v>
+        <v>0.04419184387272246</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>790595567.6875528</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2863226765.80719</v>
+        <v>1975038023.057649</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1330388795042877</v>
+        <v>0.1609622655007141</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04473661018643355</v>
+        <v>0.04217653157220164</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>82</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1431613372.675209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4181627348.226198</v>
+        <v>2734227225.302561</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10630220968798</v>
+        <v>0.09097300534549878</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03652128985688276</v>
+        <v>0.04601362272228293</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2090813715.897365</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2205065866.48693</v>
+        <v>2395338822.862225</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1466732013676375</v>
+        <v>0.1796345488851552</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02120748349167532</v>
+        <v>0.0190587046812055</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>118</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1102533011.577271</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2078275023.570019</v>
+        <v>1692902233.234575</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09784203300565837</v>
+        <v>0.08365858529517434</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03683362901419086</v>
+        <v>0.02679865784230489</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1039137633.752576</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2528263880.345132</v>
+        <v>1694493404.752162</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1284136881877076</v>
+        <v>0.1861244741390353</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05372200753243427</v>
+        <v>0.05168120790912204</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1264131984.277129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4893514416.733939</v>
+        <v>5240254854.122161</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1564816824870146</v>
+        <v>0.173494008753644</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0440567864432257</v>
+        <v>0.05037503668677307</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>116</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2446757229.073916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4826111645.63464</v>
+        <v>4215852435.869937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1244278730583544</v>
+        <v>0.1481024492094148</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04378279426752298</v>
+        <v>0.05731401158780895</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2413055868.769752</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4329486513.031265</v>
+        <v>3311795442.681987</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07932397610297985</v>
+        <v>0.07936525340597786</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0383277822639788</v>
+        <v>0.02988090002394322</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2164743271.76747</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1581939377.396426</v>
+        <v>1935243466.595524</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1580956933971627</v>
+        <v>0.1855247245376055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03496380617646391</v>
+        <v>0.03799368407218667</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>790969707.9951222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2877272612.684697</v>
+        <v>3419107998.37643</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1716949224487571</v>
+        <v>0.1350191901732968</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03892699089967842</v>
+        <v>0.0520175624267449</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>111</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1438636374.903884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080319518.344147</v>
+        <v>1452882593.516314</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1614935145555256</v>
+        <v>0.122671951393237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03454680743397121</v>
+        <v>0.05171052982267972</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>540159830.1323082</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5005649570.362319</v>
+        <v>3855103058.002814</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1362674210886978</v>
+        <v>0.1236620815424938</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04489011039550883</v>
+        <v>0.03836470197836275</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>135</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2502824782.475741</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2962470214.627859</v>
+        <v>2449684604.506314</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2048124098063607</v>
+        <v>0.1911340127831706</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03429164381724207</v>
+        <v>0.03434174039056339</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>94</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1481235142.378002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4255400114.134842</v>
+        <v>4484287692.138638</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1600990943036356</v>
+        <v>0.1617300123637312</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04394561735517539</v>
+        <v>0.04302954479859521</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2127700141.208251</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3115918939.503537</v>
+        <v>3340322405.982267</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1440432985613257</v>
+        <v>0.2193739892619218</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02584747279320342</v>
+        <v>0.02906825766025987</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1557959405.677647</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1371793839.698261</v>
+        <v>1258938031.141427</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1226678512198793</v>
+        <v>0.1458182707396538</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03716907585540288</v>
+        <v>0.04548380925098751</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>685896981.1277103</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3797978937.345656</v>
+        <v>2949397591.947611</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1760793651879079</v>
+        <v>0.1228492266126809</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02109745770037811</v>
+        <v>0.02684941442363269</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>104</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1898989540.084582</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1273344162.556824</v>
+        <v>1453824156.14501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1237841520603517</v>
+        <v>0.123379833703014</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02822553508083687</v>
+        <v>0.02592856746329219</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>636672133.1139497</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3761168162.621208</v>
+        <v>3633019498.425602</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09100426291206976</v>
+        <v>0.1093006463466373</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04537335174657201</v>
+        <v>0.03892147948704288</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1880584068.78325</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3218490674.64428</v>
+        <v>2808333682.807875</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1385504575992182</v>
+        <v>0.1982145630701942</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02765768896088311</v>
+        <v>0.02520147930145834</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1609245430.595721</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2180173046.240034</v>
+        <v>3207350828.434207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1716759705195605</v>
+        <v>0.1241668762871962</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02182572507108366</v>
+        <v>0.02994920022331514</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>113</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1090086580.909092</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1961811236.577503</v>
+        <v>1780538420.763195</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1893195885955047</v>
+        <v>0.1349277336574392</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03638706905521562</v>
+        <v>0.04639334137141751</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>980905670.6553322</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5427861412.970572</v>
+        <v>3782086385.294307</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08101102598963636</v>
+        <v>0.06948087574820072</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03647948312808832</v>
+        <v>0.03193880668938821</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>95</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2713930705.15367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5443310648.42626</v>
+        <v>3928013833.266021</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1522448447411509</v>
+        <v>0.1355511238120469</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03294527989900391</v>
+        <v>0.02216732571812896</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>102</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2721655461.586895</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4901577875.265992</v>
+        <v>4996131682.028327</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1467353775754196</v>
+        <v>0.1348546303714049</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03035218618280994</v>
+        <v>0.02228353052470969</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>118</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2450788902.426414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4769087508.648601</v>
+        <v>5640657519.061841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1624213032892558</v>
+        <v>0.1353250817031256</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03761937693125399</v>
+        <v>0.03735088299463094</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>96</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2384543769.154313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3471095486.034384</v>
+        <v>2551717726.013928</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08786772453876417</v>
+        <v>0.07518662591826998</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04480679713245719</v>
+        <v>0.04980520375382944</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>104</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1735547721.367995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5288980221.965619</v>
+        <v>4275372138.336003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1259888887659111</v>
+        <v>0.1226240174070818</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0381479355591785</v>
+        <v>0.03817916534136045</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2644490184.883204</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1903382148.011485</v>
+        <v>2272616739.849064</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1737691366027823</v>
+        <v>0.1511738609270344</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04446950385802763</v>
+        <v>0.05240255586533619</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>951691066.4736344</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3649400747.750165</v>
+        <v>2270924213.097348</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0745516585881516</v>
+        <v>0.07332168779749754</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03235556296720697</v>
+        <v>0.03104451768244317</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>93</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1824700393.093901</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5165467201.332318</v>
+        <v>5085153982.273053</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1504848607057781</v>
+        <v>0.1264839618951425</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03160466470076714</v>
+        <v>0.03305677243867605</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2582733718.764549</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1644907950.688658</v>
+        <v>1601154041.909321</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1047647640786558</v>
+        <v>0.09224141132607901</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0348970821791534</v>
+        <v>0.05117848576199005</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>822453978.9613289</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2833688447.783071</v>
+        <v>2709934040.941035</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09106331922869991</v>
+        <v>0.1119475517487649</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03803685567729091</v>
+        <v>0.03997477100030485</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1416844235.11405</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3164292370.723012</v>
+        <v>2851645504.662907</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1190288636928706</v>
+        <v>0.1442235218090339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02328257902547834</v>
+        <v>0.03267123106987448</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>111</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1582146236.574161</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1788535028.919674</v>
+        <v>2200840393.903211</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1410857603475521</v>
+        <v>0.1172028507536085</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0261728166752994</v>
+        <v>0.02320502278093726</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>894267498.5391246</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5204020725.711411</v>
+        <v>3509600589.493484</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07529038711436707</v>
+        <v>0.07599717945748774</v>
       </c>
       <c r="G76" t="n">
-        <v>0.033411634556332</v>
+        <v>0.02887147224667119</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2602010398.086256</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1622733924.248757</v>
+        <v>2085963224.866544</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1550453074710251</v>
+        <v>0.1643369048890179</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0252160346403299</v>
+        <v>0.02416720127347859</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>811366967.9345218</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3940617454.627687</v>
+        <v>4060489773.422992</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1350809528528271</v>
+        <v>0.1145420449707912</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05713319858460211</v>
+        <v>0.04413907572901171</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>114</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1970308697.296095</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1423621759.651027</v>
+        <v>1607269009.271441</v>
       </c>
       <c r="F79" t="n">
-        <v>0.139028997912209</v>
+        <v>0.129537432162702</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03594224723033616</v>
+        <v>0.02741670455940903</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>711810900.6889018</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4989969958.041332</v>
+        <v>4723930002.270927</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1000587210721704</v>
+        <v>0.07456832878908418</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03404040295476156</v>
+        <v>0.03753450830468802</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2494985027.732398</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4967259856.717976</v>
+        <v>5211670982.400322</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0890163239590083</v>
+        <v>0.09138438090278983</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02987237930210226</v>
+        <v>0.03187009871506538</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>73</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2483629927.483133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4183970336.250796</v>
+        <v>4250327099.746452</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1736249027562634</v>
+        <v>0.1724555065276765</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0223377193127218</v>
+        <v>0.02795176338284078</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2091985197.635072</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1982468022.321139</v>
+        <v>1784209731.197151</v>
       </c>
       <c r="F83" t="n">
-        <v>0.130902415884848</v>
+        <v>0.1200082756502383</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03690597654059778</v>
+        <v>0.03502476378983681</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>991233994.2973622</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2434067068.109468</v>
+        <v>1569809951.072411</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1002546469476936</v>
+        <v>0.1090501624083226</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04299083060704188</v>
+        <v>0.03206688018618344</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1217033475.543509</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3467558197.167609</v>
+        <v>3114775723.016525</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114578656234853</v>
+        <v>0.1328618581426013</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03706334414937743</v>
+        <v>0.03577551348548571</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>123</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1733779210.361554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2532074862.608326</v>
+        <v>2005723598.141716</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1177209965064111</v>
+        <v>0.1436447388286247</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01757504473228137</v>
+        <v>0.0180339873614329</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1266037532.910696</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028870197.746096</v>
+        <v>961632154.870322</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1528086479415994</v>
+        <v>0.1494172675821515</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02963285390802581</v>
+        <v>0.038487751855649</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>514435110.6208141</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3135594772.914174</v>
+        <v>2657316778.539203</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1566202057914725</v>
+        <v>0.1720166318839894</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03415873603401328</v>
+        <v>0.02606794315418823</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>129</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1567797430.30579</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2642095962.683304</v>
+        <v>2532184376.134342</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1187152899711265</v>
+        <v>0.1423863594457722</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02668441127504144</v>
+        <v>0.03238698778437066</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1321048045.692326</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1354220121.817343</v>
+        <v>2055868409.638063</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1186611439098234</v>
+        <v>0.1324988053675562</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05105223080492653</v>
+        <v>0.03712945457096432</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>677110012.9939812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1714092871.158029</v>
+        <v>1610331971.031061</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1428273774869752</v>
+        <v>0.1898513350593275</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05152414329251149</v>
+        <v>0.04371640935923743</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>857046445.9644699</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2323350976.239136</v>
+        <v>2632844566.870842</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09502245162368358</v>
+        <v>0.1056989165821499</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03445169982387038</v>
+        <v>0.0312437681868392</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1161675458.773256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3655748678.146123</v>
+        <v>3883538208.759574</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1272248743383724</v>
+        <v>0.1294583026152367</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03663809874080454</v>
+        <v>0.04154103384483981</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1827874361.966579</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2108029372.555938</v>
+        <v>2470194147.800809</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1059370107432824</v>
+        <v>0.1654859954798264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03289487034465893</v>
+        <v>0.02876885343539374</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1054014698.704983</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3228049286.395098</v>
+        <v>2635670222.104172</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1269114085506001</v>
+        <v>0.09197110439853706</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05169284318798274</v>
+        <v>0.03563079181713936</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1614024626.337802</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1519389980.359174</v>
+        <v>1962214092.379259</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0854895526959662</v>
+        <v>0.1138943281608908</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03851409795861823</v>
+        <v>0.03220268850406469</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>759695028.4769149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3577689226.847172</v>
+        <v>5189871154.996089</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1348547334190858</v>
+        <v>0.106506245269321</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0292470889846001</v>
+        <v>0.02458604134032708</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>105</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1788844635.847835</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2917415203.271004</v>
+        <v>2772790269.241615</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08575217441660371</v>
+        <v>0.1205097582425285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02022994053353915</v>
+        <v>0.02556295748629507</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1458707580.739475</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2313351693.123767</v>
+        <v>2804283361.044346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1155990431103481</v>
+        <v>0.1128690930927207</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02854259446877771</v>
+        <v>0.02717755397903877</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>103</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1156675782.757132</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4269360258.070167</v>
+        <v>4065836024.007668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1771489847461383</v>
+        <v>0.1202204778090333</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02607857650272526</v>
+        <v>0.02197747000231187</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>100</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2134680221.206017</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2835577568.872765</v>
+        <v>2549112145.534333</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1616150195589107</v>
+        <v>0.1973830949526645</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03932794093991123</v>
+        <v>0.04003777274820871</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>131</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1417788851.744082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_328.xlsx
+++ b/output/fit_clients/fit_round_328.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1789771675.139756</v>
+        <v>1745829913.087117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07030480685302821</v>
+        <v>0.09510293467902189</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02884188339058632</v>
+        <v>0.03114378823399281</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2241655653.73921</v>
+        <v>2097885190.073874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1563334246204954</v>
+        <v>0.1744025191862522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04298054532895901</v>
+        <v>0.03818048027332822</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4396416339.184923</v>
+        <v>3886998010.94088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1651402919791412</v>
+        <v>0.1636577000061633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03054660112567399</v>
+        <v>0.02710350193282075</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3631036596.149946</v>
+        <v>3871733980.662268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07766501390068459</v>
+        <v>0.08114550984905863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04341540552977629</v>
+        <v>0.04990668198289133</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2547252728.385801</v>
+        <v>2837171195.999701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.145977720863049</v>
+        <v>0.1307556521976437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04313133985208494</v>
+        <v>0.04987101858577896</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2735351455.153411</v>
+        <v>2451561931.073442</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07557527289958417</v>
+        <v>0.07355033750649137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03020885490996867</v>
+        <v>0.04908183160362058</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3915377820.353189</v>
+        <v>3513467790.136751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1748298140767694</v>
+        <v>0.1489077794615203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02620755777155553</v>
+        <v>0.02624022783707228</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1789769532.483873</v>
+        <v>2313414112.551702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1483263256083077</v>
+        <v>0.1644003541585891</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02803916127630087</v>
+        <v>0.03634345223959635</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3627036221.153488</v>
+        <v>4670360273.177775</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1713387015324078</v>
+        <v>0.1743169463451583</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04469571172048041</v>
+        <v>0.05308546381731775</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2862820651.067297</v>
+        <v>3236505222.271632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1774285969585324</v>
+        <v>0.1199806683287537</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03721081565512225</v>
+        <v>0.042298972625862</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2063230459.029938</v>
+        <v>3253260690.241273</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1207884333574934</v>
+        <v>0.1427950606024813</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03414391958169332</v>
+        <v>0.03944171144105879</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5017897213.99096</v>
+        <v>3407116561.771191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08709551059634212</v>
+        <v>0.09628031943563757</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01919865411953162</v>
+        <v>0.02661452465601533</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2514201652.576973</v>
+        <v>3715387708.945307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1163054664053912</v>
+        <v>0.180344398036309</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03928781898927207</v>
+        <v>0.04238236071804042</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1225884046.990214</v>
+        <v>1600152109.021705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07573660903237771</v>
+        <v>0.07773270299663365</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04422437306945659</v>
+        <v>0.04403005577025306</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2606455486.139446</v>
+        <v>2045164744.08218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09234811638947786</v>
+        <v>0.07798241752798397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04800864349816841</v>
+        <v>0.05038750020479909</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4301659626.587595</v>
+        <v>4256105603.281408</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1549215226875721</v>
+        <v>0.1366902081977321</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04412316770920582</v>
+        <v>0.05286816997835619</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3479270868.651433</v>
+        <v>2925572655.784955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1717730124197064</v>
+        <v>0.1413653179128988</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02768996938909212</v>
+        <v>0.03194002260641228</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1211704210.405478</v>
+        <v>957601116.2893634</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1591965469813115</v>
+        <v>0.1516015001353516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02718589165522733</v>
+        <v>0.01932886306757719</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2381138072.35015</v>
+        <v>2588411547.700336</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1252161807157798</v>
+        <v>0.1576568089949104</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02545744059567718</v>
+        <v>0.02696607946672068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2659912076.298418</v>
+        <v>1658038788.544426</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08839343537510176</v>
+        <v>0.08977371267238796</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03880760809349926</v>
+        <v>0.04112598097647913</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3133297985.750097</v>
+        <v>3741698620.106568</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09554957260594968</v>
+        <v>0.1158441013745359</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03741726625740122</v>
+        <v>0.0491427426539677</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1359835099.855327</v>
+        <v>1070474118.793741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1555548545921422</v>
+        <v>0.1275835005453068</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04312121007097596</v>
+        <v>0.04259838873719154</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2561454606.706809</v>
+        <v>2906184203.919896</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1032954401933583</v>
+        <v>0.1108542763841053</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03745173872189938</v>
+        <v>0.02780037228821285</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1390783210.354865</v>
+        <v>1193447964.971189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09929769919802015</v>
+        <v>0.08474760349556022</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0211982141294944</v>
+        <v>0.02462288108830263</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1005938568.638169</v>
+        <v>1374152888.475581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1066961133119063</v>
+        <v>0.1209151380457558</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03167973840040511</v>
+        <v>0.03204486890108273</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3178350238.174059</v>
+        <v>3559103601.542745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1469943026828036</v>
+        <v>0.144721017271396</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01964217125074424</v>
+        <v>0.01871210662731787</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2417168030.33236</v>
+        <v>3821137089.808688</v>
       </c>
       <c r="F28" t="n">
-        <v>0.110162170901122</v>
+        <v>0.1223861640336128</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03753250620520555</v>
+        <v>0.03725268449268513</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4237212031.204653</v>
+        <v>3905029842.343623</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1253228431323827</v>
+        <v>0.1020905854014322</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03430431621740887</v>
+        <v>0.03104220565273053</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1769845166.352596</v>
+        <v>1885840266.819544</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09593078055997324</v>
+        <v>0.1176028650751696</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03501999855658865</v>
+        <v>0.02666404748600347</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1180706115.584291</v>
+        <v>927809427.4012387</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07006274783315646</v>
+        <v>0.08765351498617981</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03340638474773132</v>
+        <v>0.04753997957638305</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1619112724.977982</v>
+        <v>1390768417.432925</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1053556346660093</v>
+        <v>0.1050626914125172</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0281414491544894</v>
+        <v>0.03500424402047347</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3037010677.075233</v>
+        <v>2152556700.622615</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1849351954015092</v>
+        <v>0.1871912936505692</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04500395279805454</v>
+        <v>0.04382984451174093</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1182494671.694367</v>
+        <v>1309109417.022682</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1194328603430772</v>
+        <v>0.1161837106271722</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02106832923412483</v>
+        <v>0.02085259443101148</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1343917433.174824</v>
+        <v>1329663985.725684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0989461735312807</v>
+        <v>0.0757334567190138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04351029037696128</v>
+        <v>0.03822614285613602</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2189627586.693468</v>
+        <v>2740278919.524803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1119154384222683</v>
+        <v>0.1524384880837693</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0234677079224497</v>
+        <v>0.02872955102664853</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1848348996.619391</v>
+        <v>2665228854.027028</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1111236714630946</v>
+        <v>0.09825153045939736</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03672212130322412</v>
+        <v>0.03758402627566841</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1351799986.548197</v>
+        <v>1790739168.835544</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1026952037357278</v>
+        <v>0.1214885485464311</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03764761350028778</v>
+        <v>0.02557101056247118</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1374361182.945553</v>
+        <v>1495859958.453825</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1231605437882535</v>
+        <v>0.1819131489201997</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02094019270785721</v>
+        <v>0.02655915502685484</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1353826078.914894</v>
+        <v>1813896558.363448</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1027480658720507</v>
+        <v>0.1489308380163372</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04419184387272246</v>
+        <v>0.05515681401304705</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1975038023.057649</v>
+        <v>2833668138.59543</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1609622655007141</v>
+        <v>0.1590809513368731</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04217653157220164</v>
+        <v>0.03246847278128441</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2734227225.302561</v>
+        <v>3981197835.60391</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09097300534549878</v>
+        <v>0.09271169765934952</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04601362272228293</v>
+        <v>0.03081050996538235</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2395338822.862225</v>
+        <v>2079479469.663905</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1796345488851552</v>
+        <v>0.1327773264780268</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0190587046812055</v>
+        <v>0.02590114068838505</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1692902233.234575</v>
+        <v>2268976483.194628</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08365858529517434</v>
+        <v>0.07656352580389578</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02679865784230489</v>
+        <v>0.0245507959573479</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1694493404.752162</v>
+        <v>1821721204.933528</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1861244741390353</v>
+        <v>0.1883340220682734</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05168120790912204</v>
+        <v>0.05070146193147783</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5240254854.122161</v>
+        <v>5277699542.302394</v>
       </c>
       <c r="F46" t="n">
-        <v>0.173494008753644</v>
+        <v>0.1506009448329527</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05037503668677307</v>
+        <v>0.03860456210835796</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4215852435.869937</v>
+        <v>5196057346.835509</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1481024492094148</v>
+        <v>0.172036365064452</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05731401158780895</v>
+        <v>0.04191329284638422</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3311795442.681987</v>
+        <v>4638697517.946036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07936525340597786</v>
+        <v>0.09044622622294614</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02988090002394322</v>
+        <v>0.03037018543067974</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1935243466.595524</v>
+        <v>1736081555.408953</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1855247245376055</v>
+        <v>0.1944403464649</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03799368407218667</v>
+        <v>0.03838468084869785</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3419107998.37643</v>
+        <v>3202408521.558015</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1350191901732968</v>
+        <v>0.119574992343653</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0520175624267449</v>
+        <v>0.05242189085196807</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1452882593.516314</v>
+        <v>1391142819.698328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.122671951393237</v>
+        <v>0.1927742242666263</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05171052982267972</v>
+        <v>0.03683704446855249</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3855103058.002814</v>
+        <v>4774893567.683252</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1236620815424938</v>
+        <v>0.1167036315509682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03836470197836275</v>
+        <v>0.04169149133391083</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2449684604.506314</v>
+        <v>2420270863.641586</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1911340127831706</v>
+        <v>0.1423709452757255</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03434174039056339</v>
+        <v>0.02888173339225756</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4484287692.138638</v>
+        <v>3623354781.590508</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1617300123637312</v>
+        <v>0.1476301951378108</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04302954479859521</v>
+        <v>0.04175691722523409</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3340322405.982267</v>
+        <v>3234362959.744925</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2193739892619218</v>
+        <v>0.1683060592499432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02906825766025987</v>
+        <v>0.03177994271516864</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1258938031.141427</v>
+        <v>1532150892.021994</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1458182707396538</v>
+        <v>0.1609073438820478</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04548380925098751</v>
+        <v>0.04285355226826853</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2949397591.947611</v>
+        <v>3325218816.548348</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1228492266126809</v>
+        <v>0.1247848350377826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02684941442363269</v>
+        <v>0.01958883623345228</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1453824156.14501</v>
+        <v>1669698663.863459</v>
       </c>
       <c r="F58" t="n">
-        <v>0.123379833703014</v>
+        <v>0.1239666200589872</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02592856746329219</v>
+        <v>0.0259003094443667</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3633019498.425602</v>
+        <v>4835131830.68053</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1093006463466373</v>
+        <v>0.1076356208106293</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03892147948704288</v>
+        <v>0.04972504837906932</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2808333682.807875</v>
+        <v>2469154516.54954</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1982145630701942</v>
+        <v>0.1875629565667687</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02520147930145834</v>
+        <v>0.02860551886251555</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3207350828.434207</v>
+        <v>3206567297.357108</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1241668762871962</v>
+        <v>0.1737048751363803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02994920022331514</v>
+        <v>0.02852856345859867</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1780538420.763195</v>
+        <v>1422092816.337061</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1349277336574392</v>
+        <v>0.1686630183669153</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04639334137141751</v>
+        <v>0.04961768551433831</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3782086385.294307</v>
+        <v>3379359248.386374</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06948087574820072</v>
+        <v>0.08802898204955019</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03193880668938821</v>
+        <v>0.04532445963852539</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3928013833.266021</v>
+        <v>4279269830.114156</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1355511238120469</v>
+        <v>0.1516366683367447</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02216732571812896</v>
+        <v>0.02239206656632016</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4996131682.028327</v>
+        <v>4610791279.162053</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1348546303714049</v>
+        <v>0.1186562193673476</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02228353052470969</v>
+        <v>0.0218003427063252</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5640657519.061841</v>
+        <v>3851624910.981892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1353250817031256</v>
+        <v>0.1460665424467119</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03735088299463094</v>
+        <v>0.04575647982739441</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2551717726.013928</v>
+        <v>2853399405.654703</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07518662591826998</v>
+        <v>0.06455528947971477</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04980520375382944</v>
+        <v>0.03679469310253051</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4275372138.336003</v>
+        <v>4707738942.936362</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1226240174070818</v>
+        <v>0.148689218753231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03817916534136045</v>
+        <v>0.03733090128705579</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2272616739.849064</v>
+        <v>1544530876.777864</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1511738609270344</v>
+        <v>0.1439256487915229</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05240255586533619</v>
+        <v>0.05290610820329058</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2270924213.097348</v>
+        <v>2962089960.183049</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07332168779749754</v>
+        <v>0.07592369640807586</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03104451768244317</v>
+        <v>0.04950195839333863</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5085153982.273053</v>
+        <v>5206641267.460093</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1264839618951425</v>
+        <v>0.1680399048593142</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03305677243867605</v>
+        <v>0.03280522050820269</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1601154041.909321</v>
+        <v>2262744362.014295</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09224141132607901</v>
+        <v>0.07587599589220026</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05117848576199005</v>
+        <v>0.03467413900270122</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2709934040.941035</v>
+        <v>2659235343.156999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1119475517487649</v>
+        <v>0.083534979587229</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03997477100030485</v>
+        <v>0.04756312668061202</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2851645504.662907</v>
+        <v>2858369356.401048</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1442235218090339</v>
+        <v>0.1587343192625277</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03267123106987448</v>
+        <v>0.02523976954353207</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2200840393.903211</v>
+        <v>1951681375.584515</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1172028507536085</v>
+        <v>0.1155574700095656</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02320502278093726</v>
+        <v>0.02555220466643031</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3509600589.493484</v>
+        <v>3810311803.86337</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07599717945748774</v>
+        <v>0.09247038098856827</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02887147224667119</v>
+        <v>0.02688442627699807</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2085963224.866544</v>
+        <v>2236356331.420047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1643369048890179</v>
+        <v>0.137160382983244</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02416720127347859</v>
+        <v>0.03000140744805676</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4060489773.422992</v>
+        <v>3068567771.120221</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1145420449707912</v>
+        <v>0.1272183259441507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04413907572901171</v>
+        <v>0.03869902276385562</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1607269009.271441</v>
+        <v>1712011397.505357</v>
       </c>
       <c r="F79" t="n">
-        <v>0.129537432162702</v>
+        <v>0.1755027351941402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02741670455940903</v>
+        <v>0.02943953231301923</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4723930002.270927</v>
+        <v>4592528742.31769</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07456832878908418</v>
+        <v>0.08705457649452308</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03753450830468802</v>
+        <v>0.03286330818087278</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5211670982.400322</v>
+        <v>4298955868.879074</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09138438090278983</v>
+        <v>0.1095257408896484</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03187009871506538</v>
+        <v>0.03280662450070247</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4250327099.746452</v>
+        <v>4799550244.549736</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1724555065276765</v>
+        <v>0.170415653468327</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02795176338284078</v>
+        <v>0.0259695913549263</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1784209731.197151</v>
+        <v>1707577242.618345</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1200082756502383</v>
+        <v>0.1427552106495896</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03502476378983681</v>
+        <v>0.04317254199249387</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1569809951.072411</v>
+        <v>1992249081.964995</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1090501624083226</v>
+        <v>0.1061574780441548</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03206688018618344</v>
+        <v>0.04492914839219757</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3114775723.016525</v>
+        <v>3198829233.779884</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1328618581426013</v>
+        <v>0.1807444306153833</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03577551348548571</v>
+        <v>0.03820057241942875</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2005723598.141716</v>
+        <v>2219143854.145473</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1436447388286247</v>
+        <v>0.1277893971797767</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0180339873614329</v>
+        <v>0.01898245027270537</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>961632154.870322</v>
+        <v>1090672005.425189</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1494172675821515</v>
+        <v>0.1420260874327538</v>
       </c>
       <c r="G87" t="n">
-        <v>0.038487751855649</v>
+        <v>0.04116678190523181</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2657316778.539203</v>
+        <v>3111783057.787655</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1720166318839894</v>
+        <v>0.116606276298176</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02606794315418823</v>
+        <v>0.03569155308053157</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2532184376.134342</v>
+        <v>3050126659.641943</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1423863594457722</v>
+        <v>0.1410781451198121</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03238698778437066</v>
+        <v>0.04161340384321336</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2055868409.638063</v>
+        <v>2132388976.222881</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1324988053675562</v>
+        <v>0.132360630951581</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03712945457096432</v>
+        <v>0.05317113962657855</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1610331971.031061</v>
+        <v>1766088366.415427</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1898513350593275</v>
+        <v>0.1728981625196769</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04371640935923743</v>
+        <v>0.0512779780439369</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2632844566.870842</v>
+        <v>2395557401.682748</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1056989165821499</v>
+        <v>0.07870300928941762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0312437681868392</v>
+        <v>0.0361509009097688</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3883538208.759574</v>
+        <v>4467297525.488453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1294583026152367</v>
+        <v>0.1317211078955776</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04154103384483981</v>
+        <v>0.03884481030486732</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2470194147.800809</v>
+        <v>2088706722.046362</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1654859954798264</v>
+        <v>0.1480732896320563</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02876885343539374</v>
+        <v>0.03578290299546108</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2635670222.104172</v>
+        <v>2991803378.983627</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09197110439853706</v>
+        <v>0.1009731261655422</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03563079181713936</v>
+        <v>0.0447013955787554</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1962214092.379259</v>
+        <v>2083333441.330289</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1138943281608908</v>
+        <v>0.1397958444103482</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03220268850406469</v>
+        <v>0.04541905729169907</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5189871154.996089</v>
+        <v>3387605748.695549</v>
       </c>
       <c r="F97" t="n">
-        <v>0.106506245269321</v>
+        <v>0.1546846756354334</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02458604134032708</v>
+        <v>0.02550789843386854</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2772790269.241615</v>
+        <v>2801562711.791378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1205097582425285</v>
+        <v>0.08630312731828051</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02556295748629507</v>
+        <v>0.03253662546725952</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2804283361.044346</v>
+        <v>2778034141.488433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1128690930927207</v>
+        <v>0.1106157319696469</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02717755397903877</v>
+        <v>0.03142517302582325</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4065836024.007668</v>
+        <v>4317839202.281783</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1202204778090333</v>
+        <v>0.1509221541916544</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02197747000231187</v>
+        <v>0.01931265475821215</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2549112145.534333</v>
+        <v>2489753208.666017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1973830949526645</v>
+        <v>0.1717693170735478</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04003777274820871</v>
+        <v>0.05248706820534595</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_328.xlsx
+++ b/output/fit_clients/fit_round_328.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1745829913.087117</v>
+        <v>1956841658.853954</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09510293467902189</v>
+        <v>0.08533285229951153</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03114378823399281</v>
+        <v>0.03114648677649939</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2097885190.073874</v>
+        <v>1916105838.472781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1744025191862522</v>
+        <v>0.111193108005162</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03818048027332822</v>
+        <v>0.03319190162188143</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3886998010.94088</v>
+        <v>4823594517.262357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1636577000061633</v>
+        <v>0.1479343468817589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02710350193282075</v>
+        <v>0.03432068096378188</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>170</v>
+      </c>
+      <c r="J4" t="n">
+        <v>328</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3871733980.662268</v>
+        <v>2688322384.163475</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08114550984905863</v>
+        <v>0.07001041757719056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04990668198289133</v>
+        <v>0.03410260076995163</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>325</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2837171195.999701</v>
+        <v>2586676989.011949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1307556521976437</v>
+        <v>0.1350327922038424</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04987101858577896</v>
+        <v>0.04845010418010468</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2451561931.073442</v>
+        <v>2640461448.612226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07355033750649137</v>
+        <v>0.0852879676291415</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04908183160362058</v>
+        <v>0.04321363870755825</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3513467790.136751</v>
+        <v>3055144588.940452</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489077794615203</v>
+        <v>0.1772367777973149</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02624022783707228</v>
+        <v>0.0205324062675775</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51.81252708440527</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2313414112.551702</v>
+        <v>1449525451.616759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1644003541585891</v>
+        <v>0.1915533403058803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03634345223959635</v>
+        <v>0.03705611570648092</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4670360273.177775</v>
+        <v>4949876979.758327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1743169463451583</v>
+        <v>0.1653264211666493</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05308546381731775</v>
+        <v>0.03288197306901875</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>283</v>
+      </c>
+      <c r="J10" t="n">
+        <v>328</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3236505222.271632</v>
+        <v>3185010894.503437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1199806683287537</v>
+        <v>0.1812120072610547</v>
       </c>
       <c r="G11" t="n">
-        <v>0.042298972625862</v>
+        <v>0.04629650491690575</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>133</v>
+      </c>
+      <c r="J11" t="n">
+        <v>327</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58.21462242818519</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3253260690.241273</v>
+        <v>2314330376.249825</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1427950606024813</v>
+        <v>0.1250607013307771</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03944171144105879</v>
+        <v>0.03936460817981348</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3407116561.771191</v>
+        <v>3516125583.623496</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09628031943563757</v>
+        <v>0.08039339114290761</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02661452465601533</v>
+        <v>0.02969681722847998</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>170</v>
+      </c>
+      <c r="J13" t="n">
+        <v>328</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3715387708.945307</v>
+        <v>3206224353.130657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.180344398036309</v>
+        <v>0.1746430152292698</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04238236071804042</v>
+        <v>0.03175327752444342</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1600152109.021705</v>
+        <v>1454344746.939404</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07773270299663365</v>
+        <v>0.1072540088291009</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04403005577025306</v>
+        <v>0.0401787178821296</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2045164744.08218</v>
+        <v>2183039208.89611</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07798241752798397</v>
+        <v>0.1084898533681479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05038750020479909</v>
+        <v>0.04009836190696196</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4256105603.281408</v>
+        <v>4238339958.419828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1366902081977321</v>
+        <v>0.1424235244353024</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05286816997835619</v>
+        <v>0.03218525640550361</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>154</v>
+      </c>
+      <c r="J17" t="n">
+        <v>327</v>
+      </c>
+      <c r="K17" t="n">
+        <v>70.73874204040999</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2925572655.784955</v>
+        <v>3081629526.867791</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1413653179128988</v>
+        <v>0.1399886649518289</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03194002260641228</v>
+        <v>0.03094905046786072</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>324</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>957601116.2893634</v>
+        <v>1224154414.69592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1516015001353516</v>
+        <v>0.1699061218864711</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01932886306757719</v>
+        <v>0.02482348128333757</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2588411547.700336</v>
+        <v>2694782735.552321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1576568089949104</v>
+        <v>0.1187317092826873</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02696607946672068</v>
+        <v>0.02800217455842068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1658038788.544426</v>
+        <v>2627692280.675898</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08977371267238796</v>
+        <v>0.06564854967317361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04112598097647913</v>
+        <v>0.0427901167948638</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3741698620.106568</v>
+        <v>2931746952.529666</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1158441013745359</v>
+        <v>0.129379557907138</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0491427426539677</v>
+        <v>0.0389199088926212</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="n">
+        <v>327</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.96199955072353</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1070474118.793741</v>
+        <v>1321279196.861753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1275835005453068</v>
+        <v>0.1246910114827446</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04259838873719154</v>
+        <v>0.0461794257275734</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2906184203.919896</v>
+        <v>2896337472.531418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1108542763841053</v>
+        <v>0.1087379592211785</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02780037228821285</v>
+        <v>0.02686649714670906</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>97</v>
+      </c>
+      <c r="J24" t="n">
+        <v>327</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40.94663758187917</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1193447964.971189</v>
+        <v>1131040907.172864</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08474760349556022</v>
+        <v>0.1162538665233118</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02462288108830263</v>
+        <v>0.02552131166729791</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1374152888.475581</v>
+        <v>1145629371.065783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1209151380457558</v>
+        <v>0.1002514382203161</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03204486890108273</v>
+        <v>0.03529794473585272</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3559103601.542745</v>
+        <v>4020057215.531621</v>
       </c>
       <c r="F27" t="n">
-        <v>0.144721017271396</v>
+        <v>0.1008275441477292</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01871210662731787</v>
+        <v>0.02407094719076394</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>135</v>
+      </c>
+      <c r="J27" t="n">
+        <v>328</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3821137089.808688</v>
+        <v>2621782641.66577</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1223861640336128</v>
+        <v>0.09611207440212979</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03725268449268513</v>
+        <v>0.03765045950984368</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="n">
+        <v>41.16895962950792</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3905029842.343623</v>
+        <v>5862599883.387363</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1020905854014322</v>
+        <v>0.1334902150674006</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03104220565273053</v>
+        <v>0.03712460430948993</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>300</v>
+      </c>
+      <c r="J29" t="n">
+        <v>328</v>
+      </c>
+      <c r="K29" t="n">
+        <v>73.19334225601754</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1885840266.819544</v>
+        <v>2311105467.570555</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1176028650751696</v>
+        <v>0.09916310857238929</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02666404748600347</v>
+        <v>0.03796750518592129</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>927809427.4012387</v>
+        <v>1416772398.544251</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08765351498617981</v>
+        <v>0.110379875541006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04753997957638305</v>
+        <v>0.04640187915682734</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1390768417.432925</v>
+        <v>1607987902.835579</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1050626914125172</v>
+        <v>0.1115274325816037</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03500424402047347</v>
+        <v>0.03068534485013029</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2152556700.622615</v>
+        <v>2984635545.764128</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1871912936505692</v>
+        <v>0.131809364650497</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04382984451174093</v>
+        <v>0.05433398737652474</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1309109417.022682</v>
+        <v>1557417320.485174</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1161837106271722</v>
+        <v>0.08571880474675175</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02085259443101148</v>
+        <v>0.01709061467526229</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1329663985.725684</v>
+        <v>942765296.2006624</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0757334567190138</v>
+        <v>0.1167263149628035</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03822614285613602</v>
+        <v>0.03900405577993837</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2740278919.524803</v>
+        <v>2680234144.627442</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1524384880837693</v>
+        <v>0.1660882210213675</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02872955102664853</v>
+        <v>0.0189155276515076</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2665228854.027028</v>
+        <v>2480562272.095288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09825153045939736</v>
+        <v>0.1088634520832878</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03758402627566841</v>
+        <v>0.03803281777990585</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1790739168.835544</v>
+        <v>1855133081.71665</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1214885485464311</v>
+        <v>0.1056125461714422</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02557101056247118</v>
+        <v>0.02508700703194086</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1495859958.453825</v>
+        <v>1444120054.209804</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1819131489201997</v>
+        <v>0.1503600496367338</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02655915502685484</v>
+        <v>0.0269774173530138</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1813896558.363448</v>
+        <v>1480190709.539504</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1489308380163372</v>
+        <v>0.1055074365851328</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05515681401304705</v>
+        <v>0.05377617428237105</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2833668138.59543</v>
+        <v>2413599289.246113</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1590809513368731</v>
+        <v>0.1084677692199774</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03246847278128441</v>
+        <v>0.03666302126845895</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3981197835.60391</v>
+        <v>3987117677.228608</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09271169765934952</v>
+        <v>0.08944846456400067</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03081050996538235</v>
+        <v>0.0307659683049402</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>137</v>
+      </c>
+      <c r="J42" t="n">
+        <v>328</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2079479469.663905</v>
+        <v>1887810606.222329</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1327773264780268</v>
+        <v>0.1572710086501746</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02590114068838505</v>
+        <v>0.01836299346440071</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2268976483.194628</v>
+        <v>1501440011.754606</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07656352580389578</v>
+        <v>0.06556255600710965</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0245507959573479</v>
+        <v>0.02311532621192219</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1821721204.933528</v>
+        <v>2472872899.00638</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1883340220682734</v>
+        <v>0.1756645994422303</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05070146193147783</v>
+        <v>0.04943754286821667</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5277699542.302394</v>
+        <v>3578628459.914013</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1506009448329527</v>
+        <v>0.1660690477121331</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03860456210835796</v>
+        <v>0.0393158475217073</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>196</v>
+      </c>
+      <c r="J46" t="n">
+        <v>327</v>
+      </c>
+      <c r="K46" t="n">
+        <v>62.3189814779221</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5196057346.835509</v>
+        <v>5092836732.347668</v>
       </c>
       <c r="F47" t="n">
-        <v>0.172036365064452</v>
+        <v>0.1354420250908634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04191329284638422</v>
+        <v>0.03790784389880101</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>146</v>
+      </c>
+      <c r="J47" t="n">
+        <v>328</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4638697517.946036</v>
+        <v>2990818832.365953</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09044622622294614</v>
+        <v>0.09336387049841068</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03037018543067974</v>
+        <v>0.02529562268273937</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>163</v>
+      </c>
+      <c r="J48" t="n">
+        <v>325</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1736081555.408953</v>
+        <v>1708152190.812349</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1944403464649</v>
+        <v>0.125217460497424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03838468084869785</v>
+        <v>0.03559655524353408</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3202408521.558015</v>
+        <v>3871071506.175376</v>
       </c>
       <c r="F50" t="n">
-        <v>0.119574992343653</v>
+        <v>0.1552738769575139</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05242189085196807</v>
+        <v>0.04706637418873236</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>107</v>
+      </c>
+      <c r="J50" t="n">
+        <v>328</v>
+      </c>
+      <c r="K50" t="n">
+        <v>79.50418799511147</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1391142819.698328</v>
+        <v>1059627960.258985</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1927742242666263</v>
+        <v>0.1214452776776173</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03683704446855249</v>
+        <v>0.04341040344982087</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4774893567.683252</v>
+        <v>5296791276.883788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1167036315509682</v>
+        <v>0.1034361445053471</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04169149133391083</v>
+        <v>0.03940157888184865</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>198</v>
+      </c>
+      <c r="J52" t="n">
+        <v>328</v>
+      </c>
+      <c r="K52" t="n">
+        <v>71.25365891502808</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2420270863.641586</v>
+        <v>3230551717.344128</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1423709452757255</v>
+        <v>0.1349479390189331</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02888173339225756</v>
+        <v>0.03534740064705068</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3623354781.590508</v>
+        <v>3293335120.222917</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1476301951378108</v>
+        <v>0.1687629436378365</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04175691722523409</v>
+        <v>0.04599401326144406</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>172</v>
+      </c>
+      <c r="J54" t="n">
+        <v>326</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2376,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3234362959.744925</v>
+        <v>3907290358.016499</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1683060592499432</v>
+        <v>0.2137984615858609</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03177994271516864</v>
+        <v>0.02942330202637701</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>154</v>
+      </c>
+      <c r="J55" t="n">
+        <v>328</v>
+      </c>
+      <c r="K55" t="n">
+        <v>73.30839078326316</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1532150892.021994</v>
+        <v>1734383655.486426</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1609073438820478</v>
+        <v>0.1403030325722738</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04285355226826853</v>
+        <v>0.05439883959373121</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3325218816.548348</v>
+        <v>3113633884.523332</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1247848350377826</v>
+        <v>0.1814772731854023</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01958883623345228</v>
+        <v>0.02679281478609102</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>134</v>
+      </c>
+      <c r="J57" t="n">
+        <v>325</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1669698663.863459</v>
+        <v>1532832122.348485</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1239666200589872</v>
+        <v>0.2022670781394482</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0259003094443667</v>
+        <v>0.02755968868697026</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4835131830.68053</v>
+        <v>3491346305.559429</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1076356208106293</v>
+        <v>0.08670423523343804</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04972504837906932</v>
+        <v>0.04762936378641412</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>158</v>
+      </c>
+      <c r="J59" t="n">
+        <v>328</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2469154516.54954</v>
+        <v>2546507605.491674</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1875629565667687</v>
+        <v>0.1317954900526462</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02860551886251555</v>
+        <v>0.02871024151868222</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>57</v>
+      </c>
+      <c r="J60" t="n">
+        <v>325</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3206567297.357108</v>
+        <v>2701275259.411495</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1737048751363803</v>
+        <v>0.1199965193770451</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02852856345859867</v>
+        <v>0.03146247321169683</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1422092816.337061</v>
+        <v>2079173463.55524</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1686630183669153</v>
+        <v>0.19124412034484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04961768551433831</v>
+        <v>0.03609119990952786</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3379359248.386374</v>
+        <v>5440164256.22407</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08802898204955019</v>
+        <v>0.0834091731373212</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04532445963852539</v>
+        <v>0.04085866576323935</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>159</v>
+      </c>
+      <c r="J63" t="n">
+        <v>328</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4279269830.114156</v>
+        <v>5369203478.59215</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1516366683367447</v>
+        <v>0.1259302898630362</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02239206656632016</v>
+        <v>0.02557836865951423</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>162</v>
+      </c>
+      <c r="J64" t="n">
+        <v>327</v>
+      </c>
+      <c r="K64" t="n">
+        <v>69.48482759782478</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4610791279.162053</v>
+        <v>5755535653.616865</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1186562193673476</v>
+        <v>0.1424124607444953</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0218003427063252</v>
+        <v>0.02847908761943759</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>257</v>
+      </c>
+      <c r="J65" t="n">
+        <v>327</v>
+      </c>
+      <c r="K65" t="n">
+        <v>70.74198337803844</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3851624910.981892</v>
+        <v>4060052517.102531</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1460665424467119</v>
+        <v>0.1608811820985978</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04575647982739441</v>
+        <v>0.03519643395321177</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>162</v>
+      </c>
+      <c r="J66" t="n">
+        <v>327</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.56966189502475</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2853399405.654703</v>
+        <v>3380551997.880542</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06455528947971477</v>
+        <v>0.09573082007751792</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03679469310253051</v>
+        <v>0.04019677595445047</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4707738942.936362</v>
+        <v>5201108908.932946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148689218753231</v>
+        <v>0.1564972753347264</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03733090128705579</v>
+        <v>0.0513224008155674</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>177</v>
+      </c>
+      <c r="J68" t="n">
+        <v>328</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1544530876.777864</v>
+        <v>2367631221.938336</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439256487915229</v>
+        <v>0.1774028138515241</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05290610820329058</v>
+        <v>0.04216131635926391</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2962089960.183049</v>
+        <v>2792100351.231211</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07592369640807586</v>
+        <v>0.06800515260353646</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04950195839333863</v>
+        <v>0.03292019966577565</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5206641267.460093</v>
+        <v>4075009698.77052</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680399048593142</v>
+        <v>0.1570352477630076</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03280522050820269</v>
+        <v>0.02736650117160041</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>242</v>
+      </c>
+      <c r="J71" t="n">
+        <v>328</v>
+      </c>
+      <c r="K71" t="n">
+        <v>73.80251021593375</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2262744362.014295</v>
+        <v>1510542809.728689</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07587599589220026</v>
+        <v>0.1012422199700713</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03467413900270122</v>
+        <v>0.03678803772296405</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2659235343.156999</v>
+        <v>2910790933.310113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.083534979587229</v>
+        <v>0.0911674961386479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04756312668061202</v>
+        <v>0.05250773239018676</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2858369356.401048</v>
+        <v>3721297575.441294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1587343192625277</v>
+        <v>0.1615210101900891</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02523976954353207</v>
+        <v>0.02433710015372415</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>86</v>
+      </c>
+      <c r="J74" t="n">
+        <v>328</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1951681375.584515</v>
+        <v>1884957747.105353</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1155574700095656</v>
+        <v>0.1010702520434309</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02555220466643031</v>
+        <v>0.02417073777530734</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3810311803.86337</v>
+        <v>4476215695.225377</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09247038098856827</v>
+        <v>0.1209534506252925</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02688442627699807</v>
+        <v>0.0301451925210401</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>155</v>
+      </c>
+      <c r="J76" t="n">
+        <v>327</v>
+      </c>
+      <c r="K76" t="n">
+        <v>67.70662361643222</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2236356331.420047</v>
+        <v>2146255521.785167</v>
       </c>
       <c r="F77" t="n">
-        <v>0.137160382983244</v>
+        <v>0.168673752756205</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03000140744805676</v>
+        <v>0.02973133667094082</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3068567771.120221</v>
+        <v>4073603381.891039</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1272183259441507</v>
+        <v>0.1101420468781243</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03869902276385562</v>
+        <v>0.05118962816919632</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>161</v>
+      </c>
+      <c r="J78" t="n">
+        <v>328</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1712011397.505357</v>
+        <v>1316181940.117437</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1755027351941402</v>
+        <v>0.1102015389488684</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02943953231301923</v>
+        <v>0.0342087363720732</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4592528742.31769</v>
+        <v>4857759165.668588</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08705457649452308</v>
+        <v>0.08580256536011975</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03286330818087278</v>
+        <v>0.03452887161767469</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>160</v>
+      </c>
+      <c r="J80" t="n">
+        <v>328</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4298955868.879074</v>
+        <v>3687268884.71226</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095257408896484</v>
+        <v>0.1219196003061635</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03280662450070247</v>
+        <v>0.02046836041660219</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>151</v>
+      </c>
+      <c r="J81" t="n">
+        <v>327</v>
+      </c>
+      <c r="K81" t="n">
+        <v>60.65917192505793</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4799550244.549736</v>
+        <v>4942926449.283975</v>
       </c>
       <c r="F82" t="n">
-        <v>0.170415653468327</v>
+        <v>0.139440831100794</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0259695913549263</v>
+        <v>0.02439980349430077</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>236</v>
+      </c>
+      <c r="J82" t="n">
+        <v>327</v>
+      </c>
+      <c r="K82" t="n">
+        <v>71.10479898629052</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1707577242.618345</v>
+        <v>2468382952.229891</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1427552106495896</v>
+        <v>0.1587413513950106</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04317254199249387</v>
+        <v>0.03707915294808877</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1992249081.964995</v>
+        <v>2135827522.717845</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1061574780441548</v>
+        <v>0.09414653422389943</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04492914839219757</v>
+        <v>0.04130595915541703</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3198829233.779884</v>
+        <v>2889426785.097154</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1807444306153833</v>
+        <v>0.1539174606272402</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03820057241942875</v>
+        <v>0.04180055683460918</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2219143854.145473</v>
+        <v>2105365567.528425</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1277893971797767</v>
+        <v>0.1417098284619392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01898245027270537</v>
+        <v>0.01930500876060083</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090672005.425189</v>
+        <v>1006152646.402016</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420260874327538</v>
+        <v>0.1753852348380044</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04116678190523181</v>
+        <v>0.02771998665995479</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3111783057.787655</v>
+        <v>3484360066.605893</v>
       </c>
       <c r="F88" t="n">
-        <v>0.116606276298176</v>
+        <v>0.1607676241007759</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03569155308053157</v>
+        <v>0.02620788938057695</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3050126659.641943</v>
+        <v>2280528488.033651</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1410781451198121</v>
+        <v>0.1008517236165965</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04161340384321336</v>
+        <v>0.02546250890709971</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2132388976.222881</v>
+        <v>1349555938.260026</v>
       </c>
       <c r="F90" t="n">
-        <v>0.132360630951581</v>
+        <v>0.09633939736103804</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05317113962657855</v>
+        <v>0.04652266527168015</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1766088366.415427</v>
+        <v>1930549368.397692</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1728981625196769</v>
+        <v>0.1284666742403666</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0512779780439369</v>
+        <v>0.03884256103772387</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2395557401.682748</v>
+        <v>2736574581.892888</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07870300928941762</v>
+        <v>0.09716089856947642</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0361509009097688</v>
+        <v>0.04377721253568015</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4467297525.488453</v>
+        <v>4993573772.09836</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1317211078955776</v>
+        <v>0.1027048757924789</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03884481030486732</v>
+        <v>0.0346320573437443</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>149</v>
+      </c>
+      <c r="J93" t="n">
+        <v>328</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2088706722.046362</v>
+        <v>2256856119.102642</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1480732896320563</v>
+        <v>0.1507495301463087</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03578290299546108</v>
+        <v>0.03025732743284661</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2991803378.983627</v>
+        <v>2048739645.053943</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1009731261655422</v>
+        <v>0.0949915688113649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0447013955787554</v>
+        <v>0.03921638360350385</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2083333441.330289</v>
+        <v>2394047420.601498</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397958444103482</v>
+        <v>0.1056717563349965</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04541905729169907</v>
+        <v>0.04435622567869646</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3387605748.695549</v>
+        <v>3814719065.239612</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1546846756354334</v>
+        <v>0.1359222427070753</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02550789843386854</v>
+        <v>0.02882403111525379</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>168</v>
+      </c>
+      <c r="J97" t="n">
+        <v>327</v>
+      </c>
+      <c r="K97" t="n">
+        <v>69.6053318138179</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2801562711.791378</v>
+        <v>3937072181.11623</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08630312731828051</v>
+        <v>0.1111853580461547</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03253662546725952</v>
+        <v>0.02711289510882973</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>81</v>
+      </c>
+      <c r="J98" t="n">
+        <v>328</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2778034141.488433</v>
+        <v>3013669783.63318</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1106157319696469</v>
+        <v>0.125510778848312</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03142517302582325</v>
+        <v>0.02263599537380154</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4317839202.281783</v>
+        <v>3242582190.860643</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1509221541916544</v>
+        <v>0.1610014351051458</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01931265475821215</v>
+        <v>0.02553338060182907</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>146</v>
+      </c>
+      <c r="J100" t="n">
+        <v>327</v>
+      </c>
+      <c r="K100" t="n">
+        <v>49.53580187107667</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2489753208.666017</v>
+        <v>3510097787.633773</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1717693170735478</v>
+        <v>0.1697803775804742</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05248706820534595</v>
+        <v>0.04053357221032883</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>328</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
